--- a/spreadsheet/blob_storage_security_checklist.pt.xlsx
+++ b/spreadsheet/blob_storage_security_checklist.pt.xlsx
@@ -1108,7 +1108,11 @@
           <t>Considere a 'Linha de base de segurança do Azure para armazenamento'</t>
         </is>
       </c>
-      <c r="D8" s="22" t="n"/>
+      <c r="D8" s="22" t="inlineStr">
+        <is>
+          <t>Aplicar orientações do benchmark de segurança de nuvem da Microsoft relacionadas ao Armazenamento</t>
+        </is>
+      </c>
       <c r="E8" s="22" t="inlineStr">
         <is>
           <t>Média</t>
@@ -1206,7 +1210,7 @@
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t>As contas de armazenamento recém-criadas são criadas usando o modelo de implantação do ARM, para que o RBAC, a auditoria, etc., sejam todos habilitados. Verifique se não há contas de armazenamento antigas com o modelo clássico de deslealdade em uma assinatura</t>
+          <t>As contas de armazenamento recém-criadas são criadas usando o modelo de implantação do ARM, para que o RBAC, a auditoria, etc., sejam todos habilitados. Verifique se não há contas de armazenamento antigas com o modelo de implantação clássico em uma assinatura</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
@@ -1506,7 +1510,7 @@
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>Impede a exclusão acidental de uma conta de armazenamento, forçando o usuário a primeiro remover o bloqueio de exclusão, exclusão prévia</t>
+          <t>Impede a exclusão acidental de uma conta de armazenamento, forçando o usuário a primeiro remover o bloqueio de exclusão, antes da exclusão</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
@@ -1801,7 +1805,7 @@
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Menor privacidade nas permissões do IaM</t>
+          <t>Privilégio mínimo em permissões do IaM</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
@@ -1947,10 +1951,14 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Considere usar o Azure Monitor para rastrear quem/quando lista/exibe as chaves da conta de armazenamento.</t>
-        </is>
-      </c>
-      <c r="D25" s="22" t="n"/>
+          <t>Considere o uso do Azure Monitor para auditar operações do plano de controle na conta de armazenamento</t>
+        </is>
+      </c>
+      <c r="D25" s="22" t="inlineStr">
+        <is>
+          <t>Use os dados do Registro de atividades para identificar 'quando', 'quem', 'o que' e 'como' a segurança da sua conta de armazenamento está sendo visualizada ou alterada (ou seja, chaves de conta de armazenamento, políticas de acesso, etc.).</t>
+        </is>
+      </c>
       <c r="E25" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1962,7 +1970,11 @@
         </is>
       </c>
       <c r="G25" s="22" t="n"/>
-      <c r="H25" s="16" t="n"/>
+      <c r="H25" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/blob-storage-monitoring-scenarios#audit-account-activity</t>
+        </is>
+      </c>
       <c r="I25" s="16" t="n"/>
       <c r="J25" s="23" t="n"/>
       <c r="K25" s="23" t="n"/>
@@ -2187,7 +2199,7 @@
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t>Idealmente, seu aplicativo deve estar usando uma identidade gerenciada para autenticar no Armazenamento do Azure. Se isso não for possível, considere ter a credencial de armazenamento (cadeia de conexão, chave de conta de armazenamento, SAS, credencial pricipal de serviço) no Cofre de Chaves do Azure ou em um serviço equivalente.</t>
+          <t>Idealmente, seu aplicativo deve estar usando uma identidade gerenciada para autenticar no Armazenamento do Azure. Se isso não for possível, considere ter a credencial de armazenamento (cadeia de conexão, chave de conta de armazenamento, SAS, credencial de entidade de serviço) no Cofre de Chaves do Azure ou em um serviço equivalente.</t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
@@ -2335,7 +2347,7 @@
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Um SAS pode incluir parâmetros nos quais endereços IP do cliente ou intervalos de endereços estão autorizados a solicitar um recurso usando o SAS. </t>
+          <t xml:space="preserve">Uma SAS pode incluir parâmetros nos quais endereços IP do cliente ou intervalos de endereços estão autorizados a solicitar um recurso usando a SAS. </t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
@@ -11856,7 +11868,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -11903,7 +11915,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -11940,7 +11952,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Continuidade de negócios e recuperação de desastres</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -11972,7 +11984,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Segurança, governança e conformidade</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -12004,7 +12016,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Automação de aplicativos e DevOps</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -12031,7 +12043,7 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">

--- a/spreadsheet/blob_storage_security_checklist.pt.xlsx
+++ b/spreadsheet/blob_storage_security_checklist.pt.xlsx
@@ -1150,22 +1150,18 @@
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>CI/CD</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Considere o uso de pontos de extremidade privados para o Armazenamento do Azure</t>
-        </is>
-      </c>
-      <c r="D9" s="22" t="inlineStr">
-        <is>
-          <t>O Armazenamento do Azure, por padrão, tem um endereço IP público e pode ser acessado pela Internet. Os pontos de extremidade privados permitem expor com segurança o Armazenamento do Azure somente aos recursos de Computação do Azure que precisam de acesso, eliminando assim a exposição à Internet pública</t>
-        </is>
-      </c>
+          <t>Considere configurar o repositório de código-fonte do aplicativo para detectar cadeias de conexão com check-in e chaves de conta de armazenamento.</t>
+        </is>
+      </c>
+      <c r="D9" s="22" t="n"/>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1176,7 +1172,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-private-endpoints</t>
+          <t>https://microsoft.github.io/code-with-engineering-playbook/continuous-integration/dev-sec-ops/secret-management/recipes/detect-secrets-ado/</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1180,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
+          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1200,17 +1196,17 @@
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Confidencialidade</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Verifique se as contas de armazenamento mais antigas não estão usando o "modelo de implantação clássico"</t>
+          <t>Desativar 'exclusão suave' para blobs</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t>As contas de armazenamento recém-criadas são criadas usando o modelo de implantação do ARM, para que o RBAC, a auditoria, etc., sejam todos habilitados. Verifique se não há contas de armazenamento antigas com o modelo de implantação clássico em uma assinatura</t>
+          <t xml:space="preserve">Considere desativar seletivamente a "exclusão suave" para determinados contêineres de blob, por exemplo, se o aplicativo precisar garantir que as informações excluídas sejam imediatamente excluídas, por exemplo, por razões de confidencialidade, privacidade ou conformidade. </t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
@@ -1226,7 +1222,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/migration-classic-resource-manager-overview#migration-of-storage-accounts</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-blob-enable</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1230,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
+          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1250,22 +1246,22 @@
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Confidencialidade</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Habilite o Microsoft Defender para todas as suas contas de armazenamento</t>
+          <t>Desativar 'exclusão suave' para contêineres</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t>Aproveite o Microsoft Defender para saber mais sobre atividades suspeitas e configurações incorretas.</t>
+          <t xml:space="preserve">Considere desativar seletivamente a "exclusão suave" para determinados contêineres de blob, por exemplo, se o aplicativo precisar garantir que as informações excluídas sejam imediatamente excluídas, por exemplo, por razões de confidencialidade, privacidade ou conformidade. </t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1276,7 +1272,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/azure-defender-storage-configure</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-container-enable</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1280,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
+          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1300,22 +1296,22 @@
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Disponibilidade de dados</t>
+          <t>Confidencialidade e criptografia</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Ativar 'exclusão suave' para blobs</t>
+          <t>Determine como os dados em repouso devem ser criptografados. Entenda o modelo de thread para dados.</t>
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr">
         <is>
-          <t>O mecanismo soft-delete permite recuperar blobs apagados acidentalmente.</t>
+          <t>Os dados em repouso são sempre criptografados do lado do servidor e, além disso, também podem ser criptografados do lado do cliente. A criptografia do lado do servidor pode ocorrer usando uma chave gerenciada pela plataforma (padrão) ou uma chave gerenciada pelo cliente. A criptografia do lado do cliente pode acontecer fazendo com que o cliente forneça uma chave de criptografia/descriptografia por blob para o armazenamento do Azure ou manipulando completamente a criptografia no lado do cliente. portanto, não confiando no Armazenamento do Azure para garantias de confidencialidade.</t>
         </is>
       </c>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1326,7 +1322,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-blob-overview</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1334,7 +1330,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
+          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1350,19 +1346,15 @@
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Confidencialidade</t>
+          <t>Confidencialidade e criptografia</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Desativar 'exclusão suave' para blobs</t>
-        </is>
-      </c>
-      <c r="D13" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Considere desativar seletivamente a "exclusão suave" para determinados contêineres de blob, por exemplo, se o aplicativo precisar garantir que as informações excluídas sejam imediatamente excluídas, por exemplo, por razões de confidencialidade, privacidade ou conformidade. </t>
-        </is>
-      </c>
+          <t>Determine qual/se a criptografia de plataforma deve ser usada.</t>
+        </is>
+      </c>
+      <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
           <t>Média</t>
@@ -1376,7 +1368,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-blob-enable</t>
+          <t>https://learn.microsoft.com/azure/storage/common/customer-managed-keys-overview?toc=%2Fazure%2Fstorage%2Fblobs%2Ftoc.json&amp;bc=%2Fazure%2Fstorage%2Fblobs%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1384,7 +1376,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
+          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1400,22 +1392,18 @@
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Disponibilidade de dados</t>
+          <t>Confidencialidade e criptografia</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Ativar 'exclusão suave' para contêineres</t>
-        </is>
-      </c>
-      <c r="D14" s="22" t="inlineStr">
-        <is>
-          <t>A exclusão suave para contêineres permite que você recupere um contêiner depois que ele tiver sido excluído, por exemplo, recupere de uma operação de exclusão acidental.</t>
-        </is>
-      </c>
+          <t>Determine qual/se a criptografia do lado do cliente deve ser usada.</t>
+        </is>
+      </c>
+      <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1426,7 +1414,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-container-overview</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/encryption-customer-provided-keys</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1434,7 +1422,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
+          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1450,17 +1438,17 @@
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Confidencialidade</t>
+          <t>Disponibilidade de dados</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Desativar 'exclusão suave' para contêineres</t>
+          <t>Ativar 'exclusão suave' para blobs</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere desativar seletivamente a "exclusão suave" para determinados contêineres de blob, por exemplo, se o aplicativo precisar garantir que as informações excluídas sejam imediatamente excluídas, por exemplo, por razões de confidencialidade, privacidade ou conformidade. </t>
+          <t>O mecanismo soft-delete permite recuperar blobs apagados acidentalmente.</t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
@@ -1476,7 +1464,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-container-enable</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-blob-overview</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1484,7 +1472,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
+          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1505,12 +1493,12 @@
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Habilitar bloqueios de recursos em contas de armazenamento</t>
+          <t>Ativar 'exclusão suave' para contêineres</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>Impede a exclusão acidental de uma conta de armazenamento, forçando o usuário a primeiro remover o bloqueio de exclusão, antes da exclusão</t>
+          <t>A exclusão suave para contêineres permite que você recupere um contêiner depois que ele tiver sido excluído, por exemplo, recupere de uma operação de exclusão acidental.</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
@@ -1526,7 +1514,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/lock-account-resource</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-container-overview</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1534,7 +1522,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
+          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1550,17 +1538,17 @@
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Disponibilidade de dados, conformidade</t>
+          <t>Disponibilidade de dados</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Considere blobs imutáveis</t>
+          <t>Habilitar bloqueios de recursos em contas de armazenamento</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
         <is>
-          <t>Considere políticas de "retenção legal" ou "retenção baseada em tempo" para blobs, de modo que seja impossível excluir o blob, o contêiner ou a conta de armazenamento. Por favor, note que "impossível" na verdade significa "impossível"; uma vez que uma conta de armazenamento contém um blob imutável, a única maneira de "se livrar" dessa conta de armazenamento é cancelando a assinatura do Azure.</t>
+          <t>Impede a exclusão acidental de uma conta de armazenamento, forçando o usuário a primeiro remover o bloqueio de exclusão, antes da exclusão</t>
         </is>
       </c>
       <c r="E17" s="22" t="inlineStr">
@@ -1576,7 +1564,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/immutable-storage-overview</t>
+          <t>https://learn.microsoft.com/azure/storage/common/lock-account-resource</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1584,7 +1572,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
+          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1600,17 +1588,17 @@
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Disponibilidade de dados, conformidade</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Exigir HTTPS, ou seja, desativar a porta 80 na conta de armazenamento</t>
+          <t>Considere blobs imutáveis</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere desabilitar o acesso HTTP/80 desprotegido à conta de armazenamento, para que todas as transferências de dados sejam criptografadas, a integridade protegida e o servidor seja autenticado. </t>
+          <t>Considere políticas de "retenção legal" ou "retenção baseada em tempo" para blobs, de modo que seja impossível excluir o blob, o contêiner ou a conta de armazenamento. Por favor, note que "impossível" na verdade significa "impossível"; uma vez que uma conta de armazenamento contém um blob imutável, a única maneira de "se livrar" dessa conta de armazenamento é cancelando a assinatura do Azure.</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
@@ -1626,7 +1614,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/immutable-storage-overview</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1634,7 +1622,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
+          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1650,22 +1638,22 @@
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Ao impor HTTPS (desabilitando HTTP), verifique se você não usa domínios personalizados (CNAME) para a conta de armazenamento.</t>
+          <t>Verifique se as contas de armazenamento mais antigas não estão usando o "modelo de implantação clássico"</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t>Ao configurar um domínio personalizado (nome de host) em uma conta de armazenamento, verifique se você precisa de TLS/HTTPS; em caso afirmativo, talvez seja necessário colocar a CDN do Azure na frente de sua conta de armazenamento.</t>
+          <t>As contas de armazenamento recém-criadas são criadas usando o modelo de implantação do ARM, para que o RBAC, a auditoria, etc., sejam todos habilitados. Verifique se não há contas de armazenamento antigas com o modelo de implantação clássico em uma assinatura</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1676,7 +1664,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/storage-custom-domain-name</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/migration-classic-resource-manager-overview#migration-of-storage-accounts</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1684,7 +1672,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
+          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1700,22 +1688,22 @@
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Limitar tokens de assinatura de acesso compartilhado (SAS) apenas a conexões HTTPS</t>
+          <t>Habilite o Microsoft Defender para todas as suas contas de armazenamento</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t>Exigir HTTPS quando um cliente usa um token SAS para acessar dados de blob ajuda a minimizar o risco de perda de credenciais.</t>
+          <t>Aproveite o Microsoft Defender para saber mais sobre atividades suspeitas e configurações incorretas.</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1726,7 +1714,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-sas-overview</t>
+          <t>https://learn.microsoft.com/azure/storage/common/azure-defender-storage-configure</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1734,7 +1722,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
+          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1946,22 +1934,22 @@
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Considere o uso do Azure Monitor para auditar operações do plano de controle na conta de armazenamento</t>
+          <t>Ao usar chaves de conta de armazenamento, considere habilitar uma "política de expiração de chave"</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t>Use os dados do Registro de atividades para identificar 'quando', 'quem', 'o que' e 'como' a segurança da sua conta de armazenamento está sendo visualizada ou alterada (ou seja, chaves de conta de armazenamento, políticas de acesso, etc.).</t>
+          <t>Uma política de expiração de chave permite que você defina um lembrete para a rotação das chaves de acesso da conta. O lembrete será exibido se o intervalo especificado tiver decorrido e as chaves ainda não tiverem sido giradas.</t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1972,7 +1960,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/blob-storage-monitoring-scenarios#audit-account-activity</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-account-keys-manage?tabs=azure-portal#create-a-key-expiration-policy</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1980,7 +1968,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -2001,12 +1989,12 @@
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Ao usar chaves de conta de armazenamento, considere habilitar uma "política de expiração de chave"</t>
+          <t>Considere configurar uma política de expiração SAS</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>Uma política de expiração de chave permite que você defina um lembrete para a rotação das chaves de acesso da conta. O lembrete será exibido se o intervalo especificado tiver decorrido e as chaves ainda não tiverem sido giradas.</t>
+          <t>Uma política de expiração SAS especifica um intervalo recomendado durante o qual a SAS é válida. As políticas de expiração de SAS aplicam-se a uma SAS de serviço ou a uma SAS de conta. Quando um usuário gera SAS de serviço ou SAS de conta com um intervalo de validade maior que o intervalo recomendado, ele verá um aviso.</t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
@@ -2022,7 +2010,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-account-keys-manage?tabs=azure-portal#create-a-key-expiration-policy</t>
+          <t>https://learn.microsoft.com/azure/storage/common/sas-expiration-policy</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2030,7 +2018,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2051,12 +2039,12 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Considere configurar uma política de expiração SAS</t>
+          <t>Considere vincular o SAS a uma política de acesso armazenado</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t>Uma política de expiração SAS especifica um intervalo recomendado durante o qual a SAS é válida. As políticas de expiração de SAS aplicam-se a uma SAS de serviço ou a uma SAS de conta. Quando um usuário gera SAS de serviço ou SAS de conta com um intervalo de validade maior que o intervalo recomendado, ele verá um aviso.</t>
+          <t xml:space="preserve">As políticas de acesso armazenado oferecem a opção de revogar permissões para uma SAS de serviço sem precisar regenerar as chaves da conta de armazenamento. </t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
@@ -2072,14 +2060,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/sas-expiration-policy</t>
+          <t>https://learn.microsoft.com/rest/api/storageservices/define-stored-access-policy</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
+          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2100,17 +2088,17 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Considere vincular o SAS a uma política de acesso armazenado</t>
+          <t>Considere armazenar cadeias de conexão no Cofre de Chaves do Azure (em cenários em que identidades gerenciadas não são possíveis)</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">As políticas de acesso armazenado oferecem a opção de revogar permissões para uma SAS de serviço sem precisar regenerar as chaves da conta de armazenamento. </t>
+          <t>Idealmente, seu aplicativo deve estar usando uma identidade gerenciada para autenticar no Armazenamento do Azure. Se isso não for possível, considere ter a credencial de armazenamento (cadeia de conexão, chave de conta de armazenamento, SAS, credencial de entidade de serviço) no Cofre de Chaves do Azure ou em um serviço equivalente.</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2121,14 +2109,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/storageservices/define-stored-access-policy</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/security/design-storage-keys</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
+          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2144,18 +2132,22 @@
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>CI/CD</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Considere configurar o repositório de código-fonte do aplicativo para detectar cadeias de conexão com check-in e chaves de conta de armazenamento.</t>
-        </is>
-      </c>
-      <c r="D29" s="22" t="n"/>
+          <t>Esforce-se por curtos períodos de validade para SAS ad-hoc</t>
+        </is>
+      </c>
+      <c r="D29" s="22" t="inlineStr">
+        <is>
+          <t>Use tempos de expiração de curto prazo em um SAS de serviço SAS ad hoc ou SAS de conta. Dessa forma, mesmo que um SAS seja comprometido, ele é válido apenas por um curto período de tempo. Essa prática é especialmente importante se você não puder fazer referência a uma política de acesso armazenada. Os tempos de expiração de curto prazo também limitam a quantidade de dados que podem ser gravados em um blob, limitando o tempo disponível para fazer o upload para ele.</t>
+        </is>
+      </c>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2166,14 +2158,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://microsoft.github.io/code-with-engineering-playbook/continuous-integration/dev-sec-ops/secret-management/recipes/detect-secrets-ado/</t>
+          <t>https://learn.microsoft.com/rest/api/storageservices/delegate-access-with-shared-access-signature</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
+          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2194,17 +2186,17 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Considere armazenar cadeias de conexão no Cofre de Chaves do Azure (em cenários em que identidades gerenciadas não são possíveis)</t>
+          <t>Aplicar um escopo restrito a uma SAS</t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t>Idealmente, seu aplicativo deve estar usando uma identidade gerenciada para autenticar no Armazenamento do Azure. Se isso não for possível, considere ter a credencial de armazenamento (cadeia de conexão, chave de conta de armazenamento, SAS, credencial de entidade de serviço) no Cofre de Chaves do Azure ou em um serviço equivalente.</t>
+          <t>Ao criar um SAS, seja o mais específico e restritivo possível. Prefira um SAS para um único recurso e operação sobre um SAS que dá acesso muito mais amplo.</t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2215,14 +2207,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/security/design-storage-keys</t>
+          <t>https://learn.microsoft.com/rest/api/storageservices/delegate-access-with-shared-access-signature</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
+          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2243,17 +2235,17 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Esforce-se por curtos períodos de validade para SAS ad-hoc</t>
+          <t>Considere definir o escopo do SAS para um endereço IP de cliente específico, sempre que possível</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>Use tempos de expiração de curto prazo em um SAS de serviço SAS ad hoc ou SAS de conta. Dessa forma, mesmo que um SAS seja comprometido, ele é válido apenas por um curto período de tempo. Essa prática é especialmente importante se você não puder fazer referência a uma política de acesso armazenada. Os tempos de expiração de curto prazo também limitam a quantidade de dados que podem ser gravados em um blob, limitando o tempo disponível para fazer o upload para ele.</t>
+          <t xml:space="preserve">Uma SAS pode incluir parâmetros nos quais endereços IP do cliente ou intervalos de endereços estão autorizados a solicitar um recurso usando a SAS. </t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2264,14 +2256,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/storageservices/delegate-access-with-shared-access-signature</t>
+          <t>https://learn.microsoft.com/rest/api/storageservices/create-account-sas</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
+          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2292,17 +2284,17 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Aplicar um escopo restrito a uma SAS</t>
+          <t xml:space="preserve">Considere verificar os dados carregados, depois que os clientes usaram um SAS para carregar um arquivo. </t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>Ao criar um SAS, seja o mais específico e restritivo possível. Prefira um SAS para um único recurso e operação sobre um SAS que dá acesso muito mais amplo.</t>
+          <t>Um SAS não pode restringir a quantidade de dados que um cliente carrega; dado o modelo de preços da quantidade de armazenamento ao longo do tempo, pode fazer sentido validar se os clientes carregaram conteúdo maliciosamente grande.</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2311,17 +2303,13 @@
         </is>
       </c>
       <c r="G32" s="22" t="n"/>
-      <c r="H32" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/rest/api/storageservices/delegate-access-with-shared-access-signature</t>
-        </is>
-      </c>
+      <c r="H32" s="16" t="n"/>
       <c r="I32" s="16" t="n"/>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
+          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2342,17 +2330,17 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Considere definir o escopo do SAS para um endereço IP de cliente específico, sempre que possível</t>
+          <t>SFTP: Limite a quantidade de 'usuários locais' para acesso SFTP e audite se o acesso é necessário ao longo do tempo.</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Uma SAS pode incluir parâmetros nos quais endereços IP do cliente ou intervalos de endereços estão autorizados a solicitar um recurso usando a SAS. </t>
+          <t>Ao acessar o armazenamento de blob via SFTP usando uma 'conta de usuário local', os controles RBAC 'usuais' não se aplicam. O acesso a Blobs via NFS ou REST pode ser mais restritivo do que o acesso SFTP. Infelizmente, a partir do início de 2023, os usuários locais são a única forma de gerenciamento de identidade atualmente suportada para o ponto de extremidade SFTP</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2363,7 +2351,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/storageservices/create-account-sas</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/secure-file-transfer-protocol-support#sftp-permission-model</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2371,7 +2359,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
+          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2392,17 +2380,13 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere verificar os dados carregados, depois que os clientes usaram um SAS para carregar um arquivo. </t>
-        </is>
-      </c>
-      <c r="D34" s="22" t="inlineStr">
-        <is>
-          <t>Um SAS não pode restringir a quantidade de dados que um cliente carrega; dado o modelo de preços da quantidade de armazenamento ao longo do tempo, pode fazer sentido validar se os clientes carregaram conteúdo maliciosamente grande.</t>
-        </is>
-      </c>
+          <t>SFTP: O ponto de extremidade SFTP não oferece suporte a ACLs semelhantes a POSIX.</t>
+        </is>
+      </c>
+      <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2411,13 +2395,17 @@
         </is>
       </c>
       <c r="G34" s="22" t="n"/>
-      <c r="H34" s="16" t="n"/>
+      <c r="H34" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/secure-file-transfer-protocol-known-issues#authentication-and-authorization</t>
+        </is>
+      </c>
       <c r="I34" s="16" t="n"/>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
+          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2438,12 +2426,12 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>SFTP: Limite a quantidade de 'usuários locais' para acesso SFTP e audite se o acesso é necessário ao longo do tempo.</t>
+          <t xml:space="preserve">Considere se o acesso ao blob público é necessário ou se ele pode ser desabilitado para determinadas contas de armazenamento. </t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>Ao acessar o armazenamento de blob via SFTP usando uma 'conta de usuário local', os controles RBAC 'usuais' não se aplicam. O acesso a Blobs via NFS ou REST pode ser mais restritivo do que o acesso SFTP. Infelizmente, a partir do início de 2023, os usuários locais são a única forma de gerenciamento de identidade atualmente suportada para o ponto de extremidade SFTP</t>
+          <t>Aproveite o Resource Graph Explorer (recursos | onde o tipo == 'microsoft.storage/storageaccounts' | onde properties['allowBlobPublicAccess'] == true) para localizar contas de armazenamento que permitem acesso de blob anônimo.</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
@@ -2459,7 +2447,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/secure-file-transfer-protocol-support#sftp-permission-model</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/anonymous-read-access-configure?tabs=portal#allow-or-disallow-public-read-access-for-a-storage-account</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2467,7 +2455,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
+          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2483,18 +2471,22 @@
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>SFTP: O ponto de extremidade SFTP não oferece suporte a ACLs semelhantes a POSIX.</t>
-        </is>
-      </c>
-      <c r="D36" s="22" t="n"/>
+          <t>Considere o uso do Azure Monitor para auditar operações do plano de controle na conta de armazenamento</t>
+        </is>
+      </c>
+      <c r="D36" s="22" t="inlineStr">
+        <is>
+          <t>Use os dados do Registro de atividades para identificar 'quando', 'quem', 'o que' e 'como' a segurança da sua conta de armazenamento está sendo visualizada ou alterada (ou seja, chaves de conta de armazenamento, políticas de acesso, etc.).</t>
+        </is>
+      </c>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2505,7 +2497,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/secure-file-transfer-protocol-known-issues#authentication-and-authorization</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/blob-storage-monitoring-scenarios#audit-account-activity</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2513,7 +2505,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2534,12 +2526,12 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Evite políticas de CORS excessivamente amplas</t>
+          <t>Considere o uso de pontos de extremidade privados para o Armazenamento do Azure</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t>O armazenamento oferece suporte a CORS (Cross-Origin Resource Sharing), ou seja, um recurso HTTP que permite que aplicativos Web de um domínio diferente afrouxem a política de mesma origem. Ao habilitar o CORS, mantenha o CorsRules com o menor privilégio.</t>
+          <t>O Armazenamento do Azure, por padrão, tem um endereço IP público e pode ser acessado pela Internet. Os pontos de extremidade privados permitem expor com segurança o Armazenamento do Azure somente aos recursos de Computação do Azure que precisam de acesso, eliminando assim a exposição à Internet pública</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
@@ -2555,7 +2547,7 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/storageservices/cross-origin-resource-sharing--cors--support-for-the-azure-storage-services</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-private-endpoints</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2563,7 +2555,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2579,17 +2571,17 @@
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Confidencialidade e criptografia</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Determine como os dados em repouso devem ser criptografados. Entenda o modelo de thread para dados.</t>
+          <t>Exigir HTTPS, ou seja, desativar a porta 80 na conta de armazenamento</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t>Os dados em repouso são sempre criptografados do lado do servidor e, além disso, também podem ser criptografados do lado do cliente. A criptografia do lado do servidor pode ocorrer usando uma chave gerenciada pela plataforma (padrão) ou uma chave gerenciada pelo cliente. A criptografia do lado do cliente pode acontecer fazendo com que o cliente forneça uma chave de criptografia/descriptografia por blob para o armazenamento do Azure ou manipulando completamente a criptografia no lado do cliente. portanto, não confiando no Armazenamento do Azure para garantias de confidencialidade.</t>
+          <t xml:space="preserve">Considere desabilitar o acesso HTTP/80 desprotegido à conta de armazenamento, para que todas as transferências de dados sejam criptografadas, a integridade protegida e o servidor seja autenticado. </t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
@@ -2605,7 +2597,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2613,7 +2605,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2629,18 +2621,22 @@
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Confidencialidade e criptografia</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Determine qual/se a criptografia de plataforma deve ser usada.</t>
-        </is>
-      </c>
-      <c r="D39" s="22" t="n"/>
+          <t>Ao impor HTTPS (desabilitando HTTP), verifique se você não usa domínios personalizados (CNAME) para a conta de armazenamento.</t>
+        </is>
+      </c>
+      <c r="D39" s="22" t="inlineStr">
+        <is>
+          <t>Ao configurar um domínio personalizado (nome de host) em uma conta de armazenamento, verifique se você precisa de TLS/HTTPS; em caso afirmativo, talvez seja necessário colocar a CDN do Azure na frente de sua conta de armazenamento.</t>
+        </is>
+      </c>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2651,7 +2647,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/customer-managed-keys-overview?toc=%2Fazure%2Fstorage%2Fblobs%2Ftoc.json&amp;bc=%2Fazure%2Fstorage%2Fblobs%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/storage-custom-domain-name</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2659,7 +2655,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2675,15 +2671,19 @@
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Confidencialidade e criptografia</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Determine qual/se a criptografia do lado do cliente deve ser usada.</t>
-        </is>
-      </c>
-      <c r="D40" s="22" t="n"/>
+          <t>Limitar tokens de assinatura de acesso compartilhado (SAS) apenas a conexões HTTPS</t>
+        </is>
+      </c>
+      <c r="D40" s="22" t="inlineStr">
+        <is>
+          <t>Exigir HTTPS quando um cliente usa um token SAS para acessar dados de blob ajuda a minimizar o risco de perda de credenciais.</t>
+        </is>
+      </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
           <t>Média</t>
@@ -2697,7 +2697,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/encryption-customer-provided-keys</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-sas-overview</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2705,7 +2705,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2721,17 +2721,17 @@
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere se o acesso ao blob público é necessário ou se ele pode ser desabilitado para determinadas contas de armazenamento. </t>
+          <t>Evite políticas de CORS excessivamente amplas</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>Aproveite o Resource Graph Explorer (recursos | onde o tipo == 'microsoft.storage/storageaccounts' | onde properties['allowBlobPublicAccess'] == true) para localizar contas de armazenamento que permitem acesso de blob anônimo.</t>
+          <t>O armazenamento oferece suporte a CORS (Cross-Origin Resource Sharing), ou seja, um recurso HTTP que permite que aplicativos Web de um domínio diferente afrouxem a política de mesma origem. Ao habilitar o CORS, mantenha o CorsRules com o menor privilégio.</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
@@ -2747,7 +2747,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/anonymous-read-access-configure?tabs=portal#allow-or-disallow-public-read-access-for-a-storage-account</t>
+          <t>https://learn.microsoft.com/rest/api/storageservices/cross-origin-resource-sharing--cors--support-for-the-azure-storage-services</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2755,7 +2755,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -11600,7 +11600,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11684,7 +11684,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11741,43 +11741,43 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F42" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F42" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
